--- a/excel_exports/EEFM_ENTC_B.TechB.xlsx
+++ b/excel_exports/EEFM_ENTC_B.TechB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,90 +446,105 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>2025-11-22_x</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-22_y</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>2025-11-08</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>2025-11-09</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>2025-11-10</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>2025-11-11</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>2025-11-12</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>2025-11-13</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>2025-11-15</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>2025-11-16</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>2025-11-18</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>2025-11-19</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>2025-11-20</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>2025-11-21</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Attendance %</t>
         </is>
@@ -548,7 +563,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>divyabhagas@gmail.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -621,13 +636,28 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
-      <c r="S2" t="n">
-        <v>15</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
+        <v>17</v>
+      </c>
+      <c r="W2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -644,7 +674,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>saikanekar@gmail.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -717,13 +747,28 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
         <v>0</v>
       </c>
-      <c r="S3" t="n">
-        <v>15</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
+        <v>17</v>
+      </c>
+      <c r="W3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -740,7 +785,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>anushska484m@gmail.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -800,43 +845,58 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>✅</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
         <v>1</v>
       </c>
-      <c r="S4" t="n">
-        <v>15</v>
-      </c>
-      <c r="T4" t="n">
-        <v>6.7</v>
+      <c r="V4" t="n">
+        <v>17</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EC4231</t>
+          <t>EC4226</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vaishnavi Pawar</t>
+          <t>Abhishek Pathak</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>abhipathak2513@gmail.com</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -909,30 +969,45 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
         <v>0</v>
       </c>
-      <c r="S5" t="n">
-        <v>15</v>
-      </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
+        <v>17</v>
+      </c>
+      <c r="W5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EC4233</t>
+          <t>EC4231</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sagar Pawar</t>
+          <t>Vaishnavi Pawar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>vaishnavipawar@gmail.com</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1005,30 +1080,45 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
         <v>0</v>
       </c>
-      <c r="S6" t="n">
-        <v>15</v>
-      </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
+        <v>17</v>
+      </c>
+      <c r="W6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EC4236</t>
+          <t>EC4233</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Shubham Phad</t>
+          <t>Sagar Pawar</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>sagarpawar@gmail.com</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1101,145 +1191,361 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
         <v>0</v>
       </c>
-      <c r="S7" t="n">
-        <v>15</v>
-      </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
+        <v>17</v>
+      </c>
+      <c r="W7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EC4237</t>
+          <t>EC4236</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Shubham Pitekar</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="n">
+          <t>Shubham Phad</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>shubhamphad03@gmail.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
         <v>0</v>
       </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
+        <v>17</v>
+      </c>
+      <c r="W8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>EC4237</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Shubham Pitekar</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>shubhampitekar2323@gmail.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>17</v>
+      </c>
+      <c r="W9" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>EC4255</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Damini Solunke</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>daminisolunke@gmail.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
         <v>0</v>
       </c>
-      <c r="S9" t="n">
-        <v>15</v>
-      </c>
-      <c r="T9" t="n">
+      <c r="V10" t="n">
+        <v>17</v>
+      </c>
+      <c r="W10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/excel_exports/EEFM_ENTC_B.TechB.xlsx
+++ b/excel_exports/EEFM_ENTC_B.TechB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,22 +531,32 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>2025-11-22_x.1</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Attendance %</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-22_y.1</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>2025-11-22</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Attendance %</t>
         </is>
       </c>
     </row>
@@ -655,10 +665,20 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>⏸️</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -766,10 +786,20 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>⏸️</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -877,10 +907,20 @@
         <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W4" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>⏸️</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -988,10 +1028,20 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>⏸️</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1099,10 +1149,20 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>⏸️</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1210,10 +1270,20 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>⏸️</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1321,10 +1391,20 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>⏸️</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1429,13 +1509,23 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W9" t="n">
-        <v>11.8</v>
+        <v>16.7</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>⏸️</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1543,10 +1633,20 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>⏸️</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
       </c>
     </row>
   </sheetData>
